--- a/release/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_seurat_clusters_speed_coherence.xlsx
@@ -487,10 +487,10 @@
         <v>0.5922501683235168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.518088161945343</v>
+        <v>0.5181165337562561</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6187130808830261</v>
+        <v>0.6186956763267517</v>
       </c>
       <c r="E2" t="n">
         <v>1.091765284538269</v>
@@ -499,10 +499,10 @@
         <v>0.5982705354690552</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3624999821186066</v>
+        <v>0.3625177443027496</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4928719699382782</v>
+        <v>0.4929065704345703</v>
       </c>
       <c r="I2" t="n">
         <v>1.647903323173523</v>
@@ -533,46 +533,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6525158971126728</v>
+        <v>0.6525359692710788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.808382622955874</v>
+        <v>0.8084011572150364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6639446134897677</v>
+        <v>0.6639219849070777</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9267704885601356</v>
+        <v>0.9267704035481288</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8326916835998019</v>
+        <v>0.832697454329631</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6533638456611769</v>
+        <v>0.6533682536307379</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6746669870553132</v>
+        <v>0.6746794470556879</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8965208599323867</v>
+        <v>0.8965204465453342</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7820229848939411</v>
+        <v>0.7820249889766314</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7276982566954927</v>
+        <v>0.7277195684102752</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6229777204302641</v>
+        <v>0.6229787732546146</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5909352910518646</v>
+        <v>0.5909368115663528</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6889827937790842</v>
+        <v>0.6889843398874457</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7934372138977051</v>
+        <v>0.7934364223480225</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_06_output_v0.1_seurat_clusters_speed_coherence.xlsx
@@ -434,47 +434,75 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="2">
